--- a/chatGPT/chatGPT.xlsx
+++ b/chatGPT/chatGPT.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ghj1976/Documents/GitHub/myAM/chatGPT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325F8BC9-D236-C64F-ACE1-93D02967A7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C988F9-77A7-934D-BE92-513AC1977C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4460" yWindow="1080" windowWidth="21840" windowHeight="16940" activeTab="1" xr2:uid="{96FF0485-EBDA-B84A-A022-E9563F13BC09}"/>
+    <workbookView xWindow="5520" yWindow="3480" windowWidth="21840" windowHeight="16940" activeTab="2" xr2:uid="{96FF0485-EBDA-B84A-A022-E9563F13BC09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>每代GPT</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +148,34 @@
   </si>
   <si>
     <t>占比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPT-1（2018）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12层Transformer，每层12个注意头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPT-2（2019）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPT-3（2020）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChatGPT（2022）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>96层，每层有96个注意头</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -383,6 +412,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-CE57-974A-88FD-D747F225E599}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -398,6 +432,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-CE57-974A-88FD-D747F225E599}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1761,7 +1800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="51">
+    <row r="3" spans="2:6" ht="34">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -1840,7 +1879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A4A50C8-50F6-294B-B1DA-5D4E6FF144E9}">
   <dimension ref="D2:E11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
@@ -1919,4 +1958,53 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6FE1567-E96F-3B4E-BE68-164A97328F77}">
+  <dimension ref="B2:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="35.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/chatGPT/chatGPT.xlsx
+++ b/chatGPT/chatGPT.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ghj1976/Documents/GitHub/myAM/chatGPT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C988F9-77A7-934D-BE92-513AC1977C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14629C90-5E83-8A45-AC90-6E33E8BD9A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="3480" windowWidth="21840" windowHeight="16940" activeTab="2" xr2:uid="{96FF0485-EBDA-B84A-A022-E9563F13BC09}"/>
+    <workbookView xWindow="6640" yWindow="7680" windowWidth="21840" windowHeight="16940" activeTab="1" xr2:uid="{96FF0485-EBDA-B84A-A022-E9563F13BC09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
   <si>
     <t>每代GPT</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -176,6 +177,103 @@
   </si>
   <si>
     <t>96层，每层有96个注意头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPT4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类祖先开始从四肢行走转变为直立行走。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约在 600 万年前左右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250 万年前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类祖先开始使用简单的石器。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距今 10 万年前的旧石器时代晚期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陪葬品出现，当时人类开始把一些物品和遗骸一起埋葬。这些陪葬品可能包括石器、骨器、动物遗骸、贝壳和其他物品。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距今约 4 万年前的晚期旧石器时代和早期中石器时代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类已经开始使用符号来代表物品和概念，并使用语言来进行更为复杂的交流。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距今约 2-3 万年前的晚期旧石器时代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类大脑的平均大小已经达到了现代人类的水平，约为 1200-1400 毫升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与现代黑猩猩相当，大约在 500-600 毫升左右。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推测 500-800 毫升左右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约为 1200-1400 毫升左右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大脑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPT版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大参数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未公布，推断变化不是很大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45TB
+相当于逾160个维基百科全部数据量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">GTP-3.5    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ChatGPT   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神经网络层数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -183,7 +281,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -199,16 +297,31 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -231,13 +344,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -249,6 +388,33 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1774,7 +1940,7 @@
   <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1876,6 +2042,212 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC5BE16-2160-1141-9EFC-EA721B096EB0}">
+  <dimension ref="B2:L15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" customWidth="1"/>
+    <col min="7" max="7" width="24.5" customWidth="1"/>
+    <col min="10" max="10" width="39.6640625" customWidth="1"/>
+    <col min="11" max="11" width="43.5" customWidth="1"/>
+    <col min="12" max="12" width="28.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="26" customHeight="1">
+      <c r="B2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="28" customHeight="1">
+      <c r="B3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="4">
+        <v>2018.6</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="28" customHeight="1">
+      <c r="B4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="4">
+        <v>2019.2</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="28" customHeight="1">
+      <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="4">
+        <v>2020.5</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="28" customHeight="1">
+      <c r="B6" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="4">
+        <v>2021.6</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="2:12" ht="28" customHeight="1">
+      <c r="B7" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="4">
+        <v>2022.11</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="2:12" ht="50" customHeight="1">
+      <c r="B8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="4">
+        <v>2023.3</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="J10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="34">
+      <c r="J11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="17">
+      <c r="J12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="51">
+      <c r="J13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="34">
+      <c r="J14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" spans="2:12" ht="51">
+      <c r="J15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B8:C8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A4A50C8-50F6-294B-B1DA-5D4E6FF144E9}">
   <dimension ref="D2:E11"/>
   <sheetViews>
@@ -1960,11 +2332,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6FE1567-E96F-3B4E-BE68-164A97328F77}">
   <dimension ref="B2:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
